--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3106.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3106.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.028316727574991</v>
+        <v>1.25555682182312</v>
       </c>
       <c r="B1">
-        <v>2.246475578473621</v>
+        <v>2.334315776824951</v>
       </c>
       <c r="C1">
-        <v>2.423239516020265</v>
+        <v>3.398365020751953</v>
       </c>
       <c r="D1">
-        <v>3.418051728628186</v>
+        <v>3.842350006103516</v>
       </c>
       <c r="E1">
-        <v>2.53070623381657</v>
+        <v>1.073539257049561</v>
       </c>
     </row>
   </sheetData>
